--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.27945933767</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H2">
-        <v>23.27945933767</v>
+        <v>71.472335</v>
       </c>
       <c r="I2">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J2">
-        <v>0.8828740657960639</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.138524824343102</v>
+        <v>0.2114086666666667</v>
       </c>
       <c r="N2">
-        <v>0.138524824343102</v>
+        <v>0.634226</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.149891993325802</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.149891993325802</v>
       </c>
       <c r="Q2">
-        <v>3.224783015553123</v>
+        <v>5.036623681967778</v>
       </c>
       <c r="R2">
-        <v>3.224783015553123</v>
+        <v>45.32961313771</v>
       </c>
       <c r="S2">
-        <v>0.8828740657960639</v>
+        <v>0.1320775336675182</v>
       </c>
       <c r="T2">
-        <v>0.8828740657960639</v>
+        <v>0.1320775336675182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.38782960313492</v>
+        <v>23.82411166666667</v>
       </c>
       <c r="H3">
-        <v>2.38782960313492</v>
+        <v>71.472335</v>
       </c>
       <c r="I3">
-        <v>0.09055849620771003</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="J3">
-        <v>0.09055849620771003</v>
+        <v>0.8811513593020099</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.138524824343102</v>
+        <v>0.04555566666666667</v>
       </c>
       <c r="N3">
-        <v>0.138524824343102</v>
+        <v>0.136667</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.03229966770813146</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.03229966770813146</v>
       </c>
       <c r="Q3">
-        <v>0.3307736763355238</v>
+        <v>1.085323289716111</v>
       </c>
       <c r="R3">
-        <v>0.3307736763355238</v>
+        <v>9.767909607445</v>
       </c>
       <c r="S3">
-        <v>0.09055849620771003</v>
+        <v>0.02846089610602327</v>
       </c>
       <c r="T3">
-        <v>0.09055849620771003</v>
+        <v>0.02846089610602327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>23.82411166666667</v>
+      </c>
+      <c r="H4">
+        <v>71.472335</v>
+      </c>
+      <c r="I4">
+        <v>0.8811513593020099</v>
+      </c>
+      <c r="J4">
+        <v>0.8811513593020099</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.008575333333333332</v>
+      </c>
+      <c r="N4">
+        <v>0.025726</v>
+      </c>
+      <c r="O4">
+        <v>0.006080043108134296</v>
+      </c>
+      <c r="P4">
+        <v>0.006080043108134296</v>
+      </c>
+      <c r="Q4">
+        <v>0.2042996989122222</v>
+      </c>
+      <c r="R4">
+        <v>1.83869729021</v>
+      </c>
+      <c r="S4">
+        <v>0.005357438249347353</v>
+      </c>
+      <c r="T4">
+        <v>0.005357438249347353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>23.82411166666667</v>
+      </c>
+      <c r="H5">
+        <v>71.472335</v>
+      </c>
+      <c r="I5">
+        <v>0.8811513593020099</v>
+      </c>
+      <c r="J5">
+        <v>0.8811513593020099</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.144867</v>
+      </c>
+      <c r="N5">
+        <v>3.434601</v>
+      </c>
+      <c r="O5">
+        <v>0.8117282958579322</v>
+      </c>
+      <c r="P5">
+        <v>0.8117282958579322</v>
+      </c>
+      <c r="Q5">
+        <v>27.27543925148167</v>
+      </c>
+      <c r="R5">
+        <v>245.478953263335</v>
+      </c>
+      <c r="S5">
+        <v>0.715255491279121</v>
+      </c>
+      <c r="T5">
+        <v>0.715255491279121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.7005252691181399</v>
-      </c>
-      <c r="H4">
-        <v>0.7005252691181399</v>
-      </c>
-      <c r="I4">
-        <v>0.02656743799622608</v>
-      </c>
-      <c r="J4">
-        <v>0.02656743799622608</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.138524824343102</v>
-      </c>
-      <c r="N4">
-        <v>0.138524824343102</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.0970401398524946</v>
-      </c>
-      <c r="R4">
-        <v>0.0970401398524946</v>
-      </c>
-      <c r="S4">
-        <v>0.02656743799622608</v>
-      </c>
-      <c r="T4">
-        <v>0.02656743799622608</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.471212</v>
+      </c>
+      <c r="H6">
+        <v>7.413636</v>
+      </c>
+      <c r="I6">
+        <v>0.09139949658522162</v>
+      </c>
+      <c r="J6">
+        <v>0.09139949658522162</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.2114086666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.634226</v>
+      </c>
+      <c r="O6">
+        <v>0.149891993325802</v>
+      </c>
+      <c r="P6">
+        <v>0.149891993325802</v>
+      </c>
+      <c r="Q6">
+        <v>0.5224356339706666</v>
+      </c>
+      <c r="R6">
+        <v>4.701920705736</v>
+      </c>
+      <c r="S6">
+        <v>0.0137000527321337</v>
+      </c>
+      <c r="T6">
+        <v>0.0137000527321337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.471212</v>
+      </c>
+      <c r="H7">
+        <v>7.413636</v>
+      </c>
+      <c r="I7">
+        <v>0.09139949658522162</v>
+      </c>
+      <c r="J7">
+        <v>0.09139949658522162</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.04555566666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.136667</v>
+      </c>
+      <c r="O7">
+        <v>0.03229966770813146</v>
+      </c>
+      <c r="P7">
+        <v>0.03229966770813146</v>
+      </c>
+      <c r="Q7">
+        <v>0.1125777101346667</v>
+      </c>
+      <c r="R7">
+        <v>1.013199391212</v>
+      </c>
+      <c r="S7">
+        <v>0.002952173368393154</v>
+      </c>
+      <c r="T7">
+        <v>0.002952173368393154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.471212</v>
+      </c>
+      <c r="H8">
+        <v>7.413636</v>
+      </c>
+      <c r="I8">
+        <v>0.09139949658522162</v>
+      </c>
+      <c r="J8">
+        <v>0.09139949658522162</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.008575333333333332</v>
+      </c>
+      <c r="N8">
+        <v>0.025726</v>
+      </c>
+      <c r="O8">
+        <v>0.006080043108134296</v>
+      </c>
+      <c r="P8">
+        <v>0.006080043108134296</v>
+      </c>
+      <c r="Q8">
+        <v>0.02119146663733333</v>
+      </c>
+      <c r="R8">
+        <v>0.190723199736</v>
+      </c>
+      <c r="S8">
+        <v>0.0005557128792999208</v>
+      </c>
+      <c r="T8">
+        <v>0.0005557128792999208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.471212</v>
+      </c>
+      <c r="H9">
+        <v>7.413636</v>
+      </c>
+      <c r="I9">
+        <v>0.09139949658522162</v>
+      </c>
+      <c r="J9">
+        <v>0.09139949658522162</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.144867</v>
+      </c>
+      <c r="N9">
+        <v>3.434601</v>
+      </c>
+      <c r="O9">
+        <v>0.8117282958579322</v>
+      </c>
+      <c r="P9">
+        <v>0.8117282958579322</v>
+      </c>
+      <c r="Q9">
+        <v>2.829209068804</v>
+      </c>
+      <c r="R9">
+        <v>25.462881619236</v>
+      </c>
+      <c r="S9">
+        <v>0.07419155760539484</v>
+      </c>
+      <c r="T9">
+        <v>0.07419155760539484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.085106</v>
+      </c>
+      <c r="I10">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J10">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2114086666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.634226</v>
+      </c>
+      <c r="O10">
+        <v>0.149891993325802</v>
+      </c>
+      <c r="P10">
+        <v>0.149891993325802</v>
+      </c>
+      <c r="Q10">
+        <v>0.005997381995111111</v>
+      </c>
+      <c r="R10">
+        <v>0.053976437956</v>
+      </c>
+      <c r="S10">
+        <v>0.0001572719091982626</v>
+      </c>
+      <c r="T10">
+        <v>0.0001572719091982626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.085106</v>
+      </c>
+      <c r="I11">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J11">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04555566666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.136667</v>
+      </c>
+      <c r="O11">
+        <v>0.03229966770813146</v>
+      </c>
+      <c r="P11">
+        <v>0.03229966770813146</v>
+      </c>
+      <c r="Q11">
+        <v>0.001292353522444444</v>
+      </c>
+      <c r="R11">
+        <v>0.011631181702</v>
+      </c>
+      <c r="S11">
+        <v>3.388993830968607E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.388993830968607E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.085106</v>
+      </c>
+      <c r="I12">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J12">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008575333333333332</v>
+      </c>
+      <c r="N12">
+        <v>0.025726</v>
+      </c>
+      <c r="O12">
+        <v>0.006080043108134296</v>
+      </c>
+      <c r="P12">
+        <v>0.006080043108134296</v>
+      </c>
+      <c r="Q12">
+        <v>0.0002432707728888889</v>
+      </c>
+      <c r="R12">
+        <v>0.002189436956</v>
+      </c>
+      <c r="S12">
+        <v>6.379393364564845E-06</v>
+      </c>
+      <c r="T12">
+        <v>6.379393364564845E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02836866666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.085106</v>
+      </c>
+      <c r="I13">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="J13">
+        <v>0.001049234890461559</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.144867</v>
+      </c>
+      <c r="N13">
+        <v>3.434601</v>
+      </c>
+      <c r="O13">
+        <v>0.8117282958579322</v>
+      </c>
+      <c r="P13">
+        <v>0.8117282958579322</v>
+      </c>
+      <c r="Q13">
+        <v>0.03247835030066667</v>
+      </c>
+      <c r="R13">
+        <v>0.292305152706</v>
+      </c>
+      <c r="S13">
+        <v>0.0008516936495890455</v>
+      </c>
+      <c r="T13">
+        <v>0.0008516936495890455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H14">
+        <v>2.141361</v>
+      </c>
+      <c r="I14">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J14">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2114086666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.634226</v>
+      </c>
+      <c r="O14">
+        <v>0.149891993325802</v>
+      </c>
+      <c r="P14">
+        <v>0.149891993325802</v>
+      </c>
+      <c r="Q14">
+        <v>0.150900757954</v>
+      </c>
+      <c r="R14">
+        <v>1.358106821586</v>
+      </c>
+      <c r="S14">
+        <v>0.00395713501695181</v>
+      </c>
+      <c r="T14">
+        <v>0.00395713501695181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H15">
+        <v>2.141361</v>
+      </c>
+      <c r="I15">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J15">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.04555566666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.136667</v>
+      </c>
+      <c r="O15">
+        <v>0.03229966770813146</v>
+      </c>
+      <c r="P15">
+        <v>0.03229966770813146</v>
+      </c>
+      <c r="Q15">
+        <v>0.032517042643</v>
+      </c>
+      <c r="R15">
+        <v>0.292653383787</v>
+      </c>
+      <c r="S15">
+        <v>0.0008527082954053494</v>
+      </c>
+      <c r="T15">
+        <v>0.0008527082954053494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H16">
+        <v>2.141361</v>
+      </c>
+      <c r="I16">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J16">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.008575333333333332</v>
+      </c>
+      <c r="N16">
+        <v>0.025726</v>
+      </c>
+      <c r="O16">
+        <v>0.006080043108134296</v>
+      </c>
+      <c r="P16">
+        <v>0.006080043108134296</v>
+      </c>
+      <c r="Q16">
+        <v>0.006120961453999998</v>
+      </c>
+      <c r="R16">
+        <v>0.05508865308599999</v>
+      </c>
+      <c r="S16">
+        <v>0.0001605125861224583</v>
+      </c>
+      <c r="T16">
+        <v>0.0001605125861224583</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7137869999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.141361</v>
+      </c>
+      <c r="I17">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="J17">
+        <v>0.02639990922230694</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.144867</v>
+      </c>
+      <c r="N17">
+        <v>3.434601</v>
+      </c>
+      <c r="O17">
+        <v>0.8117282958579322</v>
+      </c>
+      <c r="P17">
+        <v>0.8117282958579322</v>
+      </c>
+      <c r="Q17">
+        <v>0.817191181329</v>
+      </c>
+      <c r="R17">
+        <v>7.354720631961</v>
+      </c>
+      <c r="S17">
+        <v>0.02142955332382732</v>
+      </c>
+      <c r="T17">
+        <v>0.02142955332382732</v>
       </c>
     </row>
   </sheetData>
